--- a/StructureDefinition-ext-R5-ClaimResponse.item.xlsx
+++ b/StructureDefinition-ext-R5-ClaimResponse.item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -727,15 +727,6 @@
     <t>Extension.extension:adjudication.extension:category.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The adjudication codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-adjudication-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:adjudication.extension:reason</t>
   </si>
   <si>
@@ -765,12 +756,6 @@
   </si>
   <si>
     <t>Extension.extension:adjudication.extension:reason.value[x]</t>
-  </si>
-  <si>
-    <t>The adjudication reason codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-adjudication-reason-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:adjudication.extension:amount</t>
@@ -1520,8 +1505,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="25.82421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6944,13 +6929,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -6988,7 +6973,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
@@ -7019,16 +7004,16 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7097,7 +7082,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>161</v>
@@ -7200,7 +7185,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>163</v>
@@ -7305,7 +7290,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>165</v>
@@ -7348,7 +7333,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7410,7 +7395,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>168</v>
@@ -7439,13 +7424,13 @@
         <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7471,13 +7456,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -7515,13 +7500,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7546,16 +7531,16 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7624,7 +7609,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>161</v>
@@ -7727,7 +7712,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>163</v>
@@ -7832,7 +7817,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>165</v>
@@ -7875,7 +7860,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7937,7 +7922,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>168</v>
@@ -7963,16 +7948,16 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8042,13 +8027,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8073,16 +8058,16 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8151,7 +8136,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>161</v>
@@ -8254,7 +8239,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>163</v>
@@ -8359,7 +8344,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>165</v>
@@ -8402,7 +8387,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8464,7 +8449,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>168</v>
@@ -8490,16 +8475,16 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8569,7 +8554,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8612,7 +8597,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8674,7 +8659,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8777,13 +8762,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8808,14 +8793,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8884,7 +8869,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -8987,7 +8972,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9090,13 +9075,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9121,14 +9106,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9197,7 +9182,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>161</v>
@@ -9300,7 +9285,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>163</v>
@@ -9405,7 +9390,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>165</v>
@@ -9448,7 +9433,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9510,7 +9495,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>168</v>
@@ -9539,10 +9524,10 @@
         <v>123</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9613,7 +9598,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
@@ -9651,7 +9636,7 @@
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9720,7 +9705,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>161</v>
@@ -9823,7 +9808,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>163</v>
@@ -9928,7 +9913,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>165</v>
@@ -9971,7 +9956,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10033,7 +10018,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>168</v>
@@ -10136,7 +10121,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
@@ -10174,7 +10159,7 @@
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10243,7 +10228,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>161</v>
@@ -10346,7 +10331,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>163</v>
@@ -10451,7 +10436,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>165</v>
@@ -10494,7 +10479,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10556,7 +10541,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>168</v>
@@ -10659,7 +10644,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
@@ -10690,14 +10675,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>150</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10766,7 +10751,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>161</v>
@@ -10869,7 +10854,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>163</v>
@@ -10974,7 +10959,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>165</v>
@@ -11079,7 +11064,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>168</v>
@@ -11182,7 +11167,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
@@ -11213,14 +11198,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11289,7 +11274,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>161</v>
@@ -11392,7 +11377,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>163</v>
@@ -11497,7 +11482,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>165</v>
@@ -11540,7 +11525,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11602,7 +11587,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>168</v>
@@ -11705,13 +11690,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11736,14 +11721,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11812,7 +11797,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>161</v>
@@ -11915,7 +11900,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>163</v>
@@ -12018,13 +12003,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>163</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12049,14 +12034,14 @@
         <v>93</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12125,10 +12110,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12228,10 +12213,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12333,10 +12318,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12376,7 +12361,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12438,10 +12423,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12467,10 +12452,10 @@
         <v>123</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12541,7 +12526,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>163</v>
@@ -12579,7 +12564,7 @@
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -12648,10 +12633,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12751,10 +12736,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -12856,10 +12841,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12899,7 +12884,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -12961,10 +12946,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13064,7 +13049,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>163</v>
@@ -13102,7 +13087,7 @@
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -13171,10 +13156,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13274,10 +13259,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13379,10 +13364,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13422,7 +13407,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -13484,10 +13469,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13587,7 +13572,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>163</v>
@@ -13618,14 +13603,14 @@
         <v>93</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>150</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -13694,10 +13679,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13797,10 +13782,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -13902,10 +13887,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14007,10 +13992,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14110,7 +14095,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>163</v>
@@ -14141,14 +14126,14 @@
         <v>93</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -14217,10 +14202,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14320,10 +14305,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14425,10 +14410,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14468,7 +14453,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -14530,10 +14515,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14633,7 +14618,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>165</v>
@@ -14676,7 +14661,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14738,7 +14723,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>168</v>
@@ -14841,7 +14826,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>113</v>
@@ -14884,7 +14869,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -14946,7 +14931,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>122</v>
